--- a/data/trans_orig/P14C20-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14C20-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FFB8039-AE5D-47E3-8BB9-82FF93E60307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED4FB166-1ABD-45F5-AFAC-0EFA01CAEB24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{09A085F3-103C-4942-9E7E-3C4C0B0308A9}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D9FA626A-6EFE-4E3F-85B3-B80F050ADD71}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="126">
   <si>
     <t>Población según el tiempo de diagnóstico del hemorroides en 2015 (Tasa respuesta: 1,04%)</t>
   </si>
@@ -74,7 +74,7 @@
     <t>69,96%</t>
   </si>
   <si>
-    <t>20,68%</t>
+    <t>24,59%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -89,10 +89,10 @@
     <t>68,86%</t>
   </si>
   <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -104,7 +104,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>79,32%</t>
+    <t>75,41%</t>
   </si>
   <si>
     <t>32,31%</t>
@@ -116,10 +116,10 @@
     <t>31,14%</t>
   </si>
   <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>60,18%</t>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>60,32%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -185,13 +185,13 @@
     <t>90,66%</t>
   </si>
   <si>
-    <t>56,67%</t>
+    <t>50,0%</t>
   </si>
   <si>
     <t>93,41%</t>
   </si>
   <si>
-    <t>66,62%</t>
+    <t>70,99%</t>
   </si>
   <si>
     <t>36,25%</t>
@@ -206,13 +206,10 @@
     <t>9,34%</t>
   </si>
   <si>
-    <t>43,33%</t>
-  </si>
-  <si>
     <t>6,59%</t>
   </si>
   <si>
-    <t>33,38%</t>
+    <t>29,01%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -224,7 +221,7 @@
     <t>80,29%</t>
   </si>
   <si>
-    <t>21,32%</t>
+    <t>18,21%</t>
   </si>
   <si>
     <t>55,59%</t>
@@ -233,19 +230,19 @@
     <t>88,48%</t>
   </si>
   <si>
-    <t>48,39%</t>
+    <t>36,63%</t>
   </si>
   <si>
     <t>19,71%</t>
   </si>
   <si>
-    <t>78,68%</t>
+    <t>81,79%</t>
   </si>
   <si>
     <t>11,52%</t>
   </si>
   <si>
-    <t>51,61%</t>
+    <t>63,37%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -260,7 +257,7 @@
     <t>72,22%</t>
   </si>
   <si>
-    <t>26,66%</t>
+    <t>25,35%</t>
   </si>
   <si>
     <t>75,44%</t>
@@ -272,16 +269,16 @@
     <t>73,92%</t>
   </si>
   <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
   </si>
   <si>
     <t>27,78%</t>
   </si>
   <si>
-    <t>73,34%</t>
+    <t>74,65%</t>
   </si>
   <si>
     <t>24,56%</t>
@@ -293,10 +290,10 @@
     <t>26,08%</t>
   </si>
   <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>53,43%</t>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>53,57%</t>
   </si>
   <si>
     <t>23,25%</t>
@@ -311,88 +308,94 @@
     <t>82,51%</t>
   </si>
   <si>
+    <t>26,31%</t>
+  </si>
+  <si>
     <t>90,13%</t>
   </si>
   <si>
-    <t>56,39%</t>
+    <t>57,32%</t>
   </si>
   <si>
     <t>87,6%</t>
   </si>
   <si>
-    <t>59,1%</t>
+    <t>59,58%</t>
   </si>
   <si>
     <t>17,49%</t>
   </si>
   <si>
+    <t>73,69%</t>
+  </si>
+  <si>
     <t>5,81%</t>
   </si>
   <si>
-    <t>30,62%</t>
+    <t>26,2%</t>
   </si>
   <si>
     <t>9,87%</t>
   </si>
   <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
   </si>
   <si>
     <t>77,44%</t>
   </si>
   <si>
-    <t>58,91%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
   </si>
   <si>
     <t>79,23%</t>
   </si>
   <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
+    <t>63,7%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
   </si>
   <si>
     <t>78,5%</t>
   </si>
   <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
+    <t>68,38%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
   </si>
   <si>
     <t>22,56%</t>
   </si>
   <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
   </si>
   <si>
     <t>16,19%</t>
   </si>
   <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
   </si>
   <si>
     <t>18,79%</t>
   </si>
   <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
   </si>
   <si>
     <t>6,57%</t>
@@ -401,13 +404,13 @@
     <t>4,57%</t>
   </si>
   <si>
-    <t>15,23%</t>
+    <t>16,1%</t>
   </si>
   <si>
     <t>2,71%</t>
   </si>
   <si>
-    <t>8,51%</t>
+    <t>9,8%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -822,7 +825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{999C92E3-40C5-417D-80C4-683A9FFB04C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CD93291-2E3B-463E-99F1-E75C58DE0C54}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1679,7 +1682,7 @@
         <v>21</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="M18" s="7">
         <v>1</v>
@@ -1688,13 +1691,13 @@
         <v>1022</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1750,7 +1753,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1948,7 +1951,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -1960,10 +1963,10 @@
         <v>3968</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>13</v>
@@ -1978,7 +1981,7 @@
         <v>13</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>32</v>
@@ -1990,10 +1993,10 @@
         <v>7484</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>13</v>
@@ -2011,13 +2014,13 @@
         <v>974</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -2041,13 +2044,13 @@
         <v>974</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2068,7 +2071,7 @@
         <v>29</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2098,7 +2101,7 @@
         <v>29</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2154,7 +2157,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2166,10 +2169,10 @@
         <v>5800</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>13</v>
@@ -2181,10 +2184,10 @@
         <v>6799</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>13</v>
@@ -2196,13 +2199,13 @@
         <v>12599</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2217,13 +2220,13 @@
         <v>2231</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -2232,13 +2235,13 @@
         <v>2214</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M29" s="7">
         <v>4</v>
@@ -2247,13 +2250,13 @@
         <v>4445</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2274,7 +2277,7 @@
         <v>29</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2289,7 +2292,7 @@
         <v>29</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -2304,7 +2307,7 @@
         <v>29</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2360,7 +2363,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2372,10 +2375,10 @@
         <v>4489</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>13</v>
@@ -2429,7 +2432,7 @@
         <v>21</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -2453,13 +2456,13 @@
         <v>951</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2489,13 +2492,13 @@
         <v>1080</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M34" s="7">
         <v>1</v>
@@ -2504,13 +2507,13 @@
         <v>1080</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2578,13 +2581,13 @@
         <v>24402</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H36" s="7">
         <v>31</v>
@@ -2593,13 +2596,13 @@
         <v>36407</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M36" s="7">
         <v>52</v>
@@ -2608,13 +2611,13 @@
         <v>60809</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2629,13 +2632,13 @@
         <v>7111</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H37" s="7">
         <v>7</v>
@@ -2644,13 +2647,13 @@
         <v>7441</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M37" s="7">
         <v>14</v>
@@ -2659,13 +2662,13 @@
         <v>14552</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2686,7 +2689,7 @@
         <v>29</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H38" s="7">
         <v>2</v>
@@ -2695,13 +2698,13 @@
         <v>2102</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M38" s="7">
         <v>2</v>
@@ -2710,13 +2713,13 @@
         <v>2102</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -2772,7 +2775,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14C20-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14C20-Provincia-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED4FB166-1ABD-45F5-AFAC-0EFA01CAEB24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D17FD3E4-0C8D-4414-8837-CECFD16FFA6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D9FA626A-6EFE-4E3F-85B3-B80F050ADD71}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A545000C-3418-4A5F-A1F8-D2C901E92AEB}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="126">
-  <si>
-    <t>Población según el tiempo de diagnóstico del hemorroides en 2015 (Tasa respuesta: 1,04%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="124">
+  <si>
+    <t>Población según el tiempo de diagnóstico del hemorroides en 2016 (Tasa respuesta: 1,04%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,7 +74,7 @@
     <t>69,96%</t>
   </si>
   <si>
-    <t>24,59%</t>
+    <t>14,2%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -89,10 +89,10 @@
     <t>68,86%</t>
   </si>
   <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -104,7 +104,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>75,41%</t>
+    <t>85,8%</t>
   </si>
   <si>
     <t>32,31%</t>
@@ -116,10 +116,10 @@
     <t>31,14%</t>
   </si>
   <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>60,32%</t>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -185,13 +185,13 @@
     <t>90,66%</t>
   </si>
   <si>
-    <t>50,0%</t>
+    <t>55,72%</t>
   </si>
   <si>
     <t>93,41%</t>
   </si>
   <si>
-    <t>70,99%</t>
+    <t>62,66%</t>
   </si>
   <si>
     <t>36,25%</t>
@@ -206,10 +206,13 @@
     <t>9,34%</t>
   </si>
   <si>
+    <t>44,28%</t>
+  </si>
+  <si>
     <t>6,59%</t>
   </si>
   <si>
-    <t>29,01%</t>
+    <t>37,34%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -221,7 +224,7 @@
     <t>80,29%</t>
   </si>
   <si>
-    <t>18,21%</t>
+    <t>21,32%</t>
   </si>
   <si>
     <t>55,59%</t>
@@ -230,19 +233,19 @@
     <t>88,48%</t>
   </si>
   <si>
-    <t>36,63%</t>
+    <t>51,14%</t>
   </si>
   <si>
     <t>19,71%</t>
   </si>
   <si>
-    <t>81,79%</t>
+    <t>78,68%</t>
   </si>
   <si>
     <t>11,52%</t>
   </si>
   <si>
-    <t>63,37%</t>
+    <t>48,86%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -257,43 +260,43 @@
     <t>72,22%</t>
   </si>
   <si>
-    <t>25,35%</t>
+    <t>33,61%</t>
   </si>
   <si>
     <t>75,44%</t>
   </si>
   <si>
-    <t>38,28%</t>
+    <t>36,28%</t>
   </si>
   <si>
     <t>73,92%</t>
   </si>
   <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
   </si>
   <si>
     <t>27,78%</t>
   </si>
   <si>
-    <t>74,65%</t>
+    <t>66,39%</t>
   </si>
   <si>
     <t>24,56%</t>
   </si>
   <si>
-    <t>61,72%</t>
+    <t>63,72%</t>
   </si>
   <si>
     <t>26,08%</t>
   </si>
   <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>53,57%</t>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
   </si>
   <si>
     <t>23,25%</t>
@@ -308,94 +311,88 @@
     <t>82,51%</t>
   </si>
   <si>
-    <t>26,31%</t>
-  </si>
-  <si>
     <t>90,13%</t>
   </si>
   <si>
-    <t>57,32%</t>
+    <t>54,35%</t>
   </si>
   <si>
     <t>87,6%</t>
   </si>
   <si>
-    <t>59,58%</t>
+    <t>63,83%</t>
   </si>
   <si>
     <t>17,49%</t>
   </si>
   <si>
-    <t>73,69%</t>
-  </si>
-  <si>
     <t>5,81%</t>
   </si>
   <si>
-    <t>26,2%</t>
+    <t>27,28%</t>
   </si>
   <si>
     <t>9,87%</t>
   </si>
   <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
+    <t>45,65%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
   </si>
   <si>
     <t>77,44%</t>
   </si>
   <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
+    <t>60,17%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
   </si>
   <si>
     <t>79,23%</t>
   </si>
   <si>
-    <t>63,7%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
+    <t>64,41%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
   </si>
   <si>
     <t>78,5%</t>
   </si>
   <si>
-    <t>68,38%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
+    <t>68,19%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
   </si>
   <si>
     <t>22,56%</t>
   </si>
   <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
   </si>
   <si>
     <t>16,19%</t>
   </si>
   <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
   </si>
   <si>
     <t>18,79%</t>
   </si>
   <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
   </si>
   <si>
     <t>6,57%</t>
@@ -404,13 +401,10 @@
     <t>4,57%</t>
   </si>
   <si>
-    <t>16,1%</t>
-  </si>
-  <si>
     <t>2,71%</t>
   </si>
   <si>
-    <t>9,8%</t>
+    <t>8,84%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -825,7 +819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CD93291-2E3B-463E-99F1-E75C58DE0C54}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DC1D154-25A9-4309-A2B0-1E0C8490CD0E}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1682,7 +1676,7 @@
         <v>21</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="M18" s="7">
         <v>1</v>
@@ -1691,13 +1685,13 @@
         <v>1022</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1753,7 +1747,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1951,7 +1945,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -1963,10 +1957,10 @@
         <v>3968</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>13</v>
@@ -1981,7 +1975,7 @@
         <v>13</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>32</v>
@@ -1993,10 +1987,10 @@
         <v>7484</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>13</v>
@@ -2014,13 +2008,13 @@
         <v>974</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -2044,13 +2038,13 @@
         <v>974</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2071,7 +2065,7 @@
         <v>29</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2101,7 +2095,7 @@
         <v>29</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2157,7 +2151,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2169,10 +2163,10 @@
         <v>5800</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>13</v>
@@ -2184,10 +2178,10 @@
         <v>6799</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>13</v>
@@ -2199,13 +2193,13 @@
         <v>12599</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2220,13 +2214,13 @@
         <v>2231</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -2235,13 +2229,13 @@
         <v>2214</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M29" s="7">
         <v>4</v>
@@ -2250,13 +2244,13 @@
         <v>4445</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2277,7 +2271,7 @@
         <v>29</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2292,7 +2286,7 @@
         <v>29</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -2307,7 +2301,7 @@
         <v>29</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2363,7 +2357,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2375,10 +2369,10 @@
         <v>4489</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>13</v>
@@ -2432,7 +2426,7 @@
         <v>21</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -2456,13 +2450,13 @@
         <v>951</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2492,13 +2486,13 @@
         <v>1080</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M34" s="7">
         <v>1</v>
@@ -2507,13 +2501,13 @@
         <v>1080</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2581,13 +2575,13 @@
         <v>24402</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="H36" s="7">
         <v>31</v>
@@ -2596,13 +2590,13 @@
         <v>36407</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="M36" s="7">
         <v>52</v>
@@ -2611,13 +2605,13 @@
         <v>60809</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2632,13 +2626,13 @@
         <v>7111</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="H37" s="7">
         <v>7</v>
@@ -2647,13 +2641,13 @@
         <v>7441</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="M37" s="7">
         <v>14</v>
@@ -2662,13 +2656,13 @@
         <v>14552</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2689,7 +2683,7 @@
         <v>29</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H38" s="7">
         <v>2</v>
@@ -2698,13 +2692,13 @@
         <v>2102</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>122</v>
+        <v>31</v>
       </c>
       <c r="M38" s="7">
         <v>2</v>
@@ -2713,13 +2707,13 @@
         <v>2102</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -2775,7 +2769,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
